--- a/560-modify/bug/客户端BUG对应.xlsx
+++ b/560-modify/bug/客户端BUG对应.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="7935"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="客户端BUG汇总" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>大项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,14 +76,6 @@
   </si>
   <si>
     <t>点击工具栏上的发布货源，打开发布货源页面，吨数输入的数字长度大于100的数字时，其他的数据正常输入，点击发布时，提示信息为英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">备注：
-① 方、价格 输入的长度大于100时，也会提示这样的信息
-② 当方输入一个正常的数字时，如20，价格输入11223333222255555544555555777755555557785888882元/方时，也会提示这样的信息，点击确认按钮后，光标却定位到方的输入框
-③ 吨 方 都输入一个正常的数字，价格输入11223333222255555544555555777755555557785888882元/吨时，也会提示这样的信息，点击确认按钮后，光标仍然定位到方的输入框
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,10 +101,6 @@
   </si>
   <si>
     <t>发布货源页面 历史记录页面 第一条历史记录无法删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史记录页面 自动重发功能不起作用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,6 +315,34 @@
   </si>
   <si>
     <t>客户端BUG汇总（无服务器端的BUG）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done, set limit to 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史记录页面 自动重发功能不起作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动重发啥意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done 隐藏了这个控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有逻辑中联系人电话是必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can not reproduce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +412,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,7 +836,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -821,7 +849,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -833,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -856,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -865,14 +893,14 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -880,13 +908,15 @@
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11"/>
@@ -894,25 +924,29 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="27">
       <c r="A7" s="11"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11"/>
@@ -920,12 +954,14 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="11"/>
@@ -933,11 +969,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -946,10 +982,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -961,10 +997,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -973,26 +1009,30 @@
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="C13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="27">
       <c r="A14" s="11"/>
@@ -1000,12 +1040,14 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
@@ -1013,10 +1055,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1026,10 +1068,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1039,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1052,10 +1094,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1065,10 +1107,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1078,10 +1120,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1091,10 +1133,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1104,10 +1146,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1117,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
